--- a/Cities_with_Rental_Links.xlsx
+++ b/Cities_with_Rental_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Endeksa/Endeksa-Scrap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7E0960E2259B49A91FF2FEF3B18B04F178787061" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E2D3F2-C067-4020-AFFF-6960775D4D95}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7E0960E2259B49A91FF2FE7AE90B3E4178787061" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B286C37-FBD1-45DF-822A-0EF483CF5304}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cities_with_Rental_Links.xlsx
+++ b/Cities_with_Rental_Links.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Endeksa/Endeksa-Scrap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7E0960E2259B49A91FF2FE7AE90B3E4178787061" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B286C37-FBD1-45DF-822A-0EF483CF5304}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_7E0960E2259B49A91FF2FE7AE90B3E4178787061" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3F7652-41FB-4680-B730-2EDFCCB6A9FF}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="İller" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
